--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3026570534183</v>
+        <v>12.53527733333333</v>
       </c>
       <c r="H2">
-        <v>12.3026570534183</v>
+        <v>37.605832</v>
       </c>
       <c r="I2">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="J2">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>208.4549461112096</v>
+        <v>230.4294472686213</v>
       </c>
       <c r="R2">
-        <v>208.4549461112096</v>
+        <v>2073.865025417592</v>
       </c>
       <c r="S2">
-        <v>0.02601213128285413</v>
+        <v>0.02733286936197803</v>
       </c>
       <c r="T2">
-        <v>0.02601213128285413</v>
+        <v>0.02733286936197802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3026570534183</v>
+        <v>12.53527733333333</v>
       </c>
       <c r="H3">
-        <v>12.3026570534183</v>
+        <v>37.605832</v>
       </c>
       <c r="I3">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="J3">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>1010.737880409024</v>
+        <v>1035.957165760831</v>
       </c>
       <c r="R3">
-        <v>1010.737880409024</v>
+        <v>9323.614491847478</v>
       </c>
       <c r="S3">
-        <v>0.1261253183396613</v>
+        <v>0.1228822193169479</v>
       </c>
       <c r="T3">
-        <v>0.1261253183396613</v>
+        <v>0.1228822193169479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3026570534183</v>
+        <v>12.53527733333333</v>
       </c>
       <c r="H4">
-        <v>12.3026570534183</v>
+        <v>37.605832</v>
       </c>
       <c r="I4">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="J4">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>1118.713820190243</v>
+        <v>1143.856550159742</v>
       </c>
       <c r="R4">
-        <v>1118.713820190243</v>
+        <v>10294.70895143768</v>
       </c>
       <c r="S4">
-        <v>0.1395991378549833</v>
+        <v>0.135680929781133</v>
       </c>
       <c r="T4">
-        <v>0.1395991378549833</v>
+        <v>0.135680929781133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3026570534183</v>
+        <v>12.53527733333333</v>
       </c>
       <c r="H5">
-        <v>12.3026570534183</v>
+        <v>37.605832</v>
       </c>
       <c r="I5">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="J5">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>963.2349485009346</v>
+        <v>1018.973335780038</v>
       </c>
       <c r="R5">
-        <v>963.2349485009346</v>
+        <v>9170.760022020344</v>
       </c>
       <c r="S5">
-        <v>0.1201976465613458</v>
+        <v>0.120867646910367</v>
       </c>
       <c r="T5">
-        <v>0.1201976465613458</v>
+        <v>0.120867646910367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3026570534183</v>
+        <v>12.53527733333333</v>
       </c>
       <c r="H6">
-        <v>12.3026570534183</v>
+        <v>37.605832</v>
       </c>
       <c r="I6">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="J6">
-        <v>0.4321929725618264</v>
+        <v>0.4284042319910757</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>162.3486442217404</v>
+        <v>182.4405531280542</v>
       </c>
       <c r="R6">
-        <v>162.3486442217404</v>
+        <v>1641.964978152488</v>
       </c>
       <c r="S6">
-        <v>0.02025873852298195</v>
+        <v>0.02164056662064984</v>
       </c>
       <c r="T6">
-        <v>0.02025873852298195</v>
+        <v>0.02164056662064983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3747658626899</v>
+        <v>15.56838566666667</v>
       </c>
       <c r="H7">
-        <v>15.3747658626899</v>
+        <v>46.705157</v>
       </c>
       <c r="I7">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="J7">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>260.5084393935041</v>
+        <v>286.1854914446296</v>
       </c>
       <c r="R7">
-        <v>260.5084393935041</v>
+        <v>2575.669423001667</v>
       </c>
       <c r="S7">
-        <v>0.0325076466268165</v>
+        <v>0.03394648880023911</v>
       </c>
       <c r="T7">
-        <v>0.0325076466268165</v>
+        <v>0.03394648880023911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.3747658626899</v>
+        <v>15.56838566666667</v>
       </c>
       <c r="H8">
-        <v>15.3747658626899</v>
+        <v>46.705157</v>
       </c>
       <c r="I8">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="J8">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>1263.130248398045</v>
+        <v>1286.62336395415</v>
       </c>
       <c r="R8">
-        <v>1263.130248398045</v>
+        <v>11579.61027558735</v>
       </c>
       <c r="S8">
-        <v>0.1576201978491084</v>
+        <v>0.1526155130860151</v>
       </c>
       <c r="T8">
-        <v>0.1576201978491084</v>
+        <v>0.1526155130860151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.3747658626899</v>
+        <v>15.56838566666667</v>
       </c>
       <c r="H9">
-        <v>15.3747658626899</v>
+        <v>46.705157</v>
       </c>
       <c r="I9">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="J9">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>1398.068968199137</v>
+        <v>1420.630708574381</v>
       </c>
       <c r="R9">
-        <v>1398.068968199137</v>
+        <v>12785.67637716943</v>
       </c>
       <c r="S9">
-        <v>0.1744585783245406</v>
+        <v>0.1685110736902136</v>
       </c>
       <c r="T9">
-        <v>0.1744585783245406</v>
+        <v>0.1685110736902136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.3747658626899</v>
+        <v>15.56838566666667</v>
       </c>
       <c r="H10">
-        <v>15.3747658626899</v>
+        <v>46.705157</v>
       </c>
       <c r="I10">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="J10">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>1203.765311806948</v>
+        <v>1265.530028066402</v>
       </c>
       <c r="R10">
-        <v>1203.765311806948</v>
+        <v>11389.77025259762</v>
       </c>
       <c r="S10">
-        <v>0.1502123212167061</v>
+        <v>0.150113483067447</v>
       </c>
       <c r="T10">
-        <v>0.1502123212167061</v>
+        <v>0.150113483067447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.3747658626899</v>
+        <v>15.56838566666667</v>
       </c>
       <c r="H11">
-        <v>15.3747658626899</v>
+        <v>46.705157</v>
       </c>
       <c r="I11">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="J11">
-        <v>0.5401163124181992</v>
+        <v>0.5320634021501669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>202.8888867011754</v>
+        <v>226.5849264287681</v>
       </c>
       <c r="R11">
-        <v>202.8888867011754</v>
+        <v>2039.264337858913</v>
       </c>
       <c r="S11">
-        <v>0.02531756840102769</v>
+        <v>0.02687684350625217</v>
       </c>
       <c r="T11">
-        <v>0.02531756840102769</v>
+        <v>0.02687684350625217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7882344047275071</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H12">
-        <v>0.7882344047275071</v>
+        <v>0.129202</v>
       </c>
       <c r="I12">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="J12">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>13.35576206400225</v>
+        <v>0.7916842644513333</v>
       </c>
       <c r="R12">
-        <v>13.35576206400225</v>
+        <v>7.125158380062</v>
       </c>
       <c r="S12">
-        <v>0.001666603948107075</v>
+        <v>9.390727978857869E-05</v>
       </c>
       <c r="T12">
-        <v>0.001666603948107075</v>
+        <v>9.390727978857865E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7882344047275071</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H13">
-        <v>0.7882344047275071</v>
+        <v>0.129202</v>
       </c>
       <c r="I13">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="J13">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>64.75823621193979</v>
+        <v>3.559228199781111</v>
       </c>
       <c r="R13">
-        <v>64.75823621193979</v>
+        <v>32.03305379803</v>
       </c>
       <c r="S13">
-        <v>0.008080881616943664</v>
+        <v>0.0004221852743528798</v>
       </c>
       <c r="T13">
-        <v>0.008080881616943664</v>
+        <v>0.0004221852743528797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.7882344047275071</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H14">
-        <v>0.7882344047275071</v>
+        <v>0.129202</v>
       </c>
       <c r="I14">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="J14">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>71.67628247209252</v>
+        <v>3.929937090442223</v>
       </c>
       <c r="R14">
-        <v>71.67628247209252</v>
+        <v>35.36943381398</v>
       </c>
       <c r="S14">
-        <v>0.008944152702120733</v>
+        <v>0.0004661576823930382</v>
       </c>
       <c r="T14">
-        <v>0.008944152702120733</v>
+        <v>0.000466157682393038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.7882344047275071</v>
+        <v>0.04306733333333334</v>
       </c>
       <c r="H15">
-        <v>0.7882344047275071</v>
+        <v>0.129202</v>
       </c>
       <c r="I15">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="J15">
-        <v>0.02769071501997431</v>
+        <v>0.001471864352893747</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>61.71471113497435</v>
+        <v>3.500877016348223</v>
       </c>
       <c r="R15">
-        <v>61.71471113497435</v>
+        <v>31.507893147134</v>
       </c>
       <c r="S15">
-        <v>0.007701094160029846</v>
+        <v>0.0004152638270604741</v>
       </c>
       <c r="T15">
-        <v>0.007701094160029846</v>
+        <v>0.0004152638270604739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04306733333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.129202</v>
+      </c>
+      <c r="I16">
+        <v>0.001471864352893747</v>
+      </c>
+      <c r="J16">
+        <v>0.001471864352893747</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N16">
+        <v>43.662509</v>
+      </c>
+      <c r="O16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q16">
+        <v>0.6268092764242224</v>
+      </c>
+      <c r="R16">
+        <v>5.641283487818001</v>
+      </c>
+      <c r="S16">
+        <v>7.435028929877687E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.435028929877683E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.852656</v>
+      </c>
+      <c r="I17">
+        <v>0.009713425269585385</v>
+      </c>
+      <c r="J17">
+        <v>0.009713425269585383</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.382477</v>
+      </c>
+      <c r="N17">
+        <v>55.147431</v>
+      </c>
+      <c r="O17">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P17">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q17">
+        <v>5.224643102970666</v>
+      </c>
+      <c r="R17">
+        <v>47.021787926736</v>
+      </c>
+      <c r="S17">
+        <v>0.000619731935693026</v>
+      </c>
+      <c r="T17">
+        <v>0.0006197319356930258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.852656</v>
+      </c>
+      <c r="I18">
+        <v>0.009713425269585385</v>
+      </c>
+      <c r="J18">
+        <v>0.009713425269585383</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N18">
+        <v>247.930015</v>
+      </c>
+      <c r="O18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q18">
+        <v>23.48877942998222</v>
+      </c>
+      <c r="R18">
+        <v>211.39901486984</v>
+      </c>
+      <c r="S18">
+        <v>0.002786170549129495</v>
+      </c>
+      <c r="T18">
+        <v>0.002786170549129495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.852656</v>
+      </c>
+      <c r="I19">
+        <v>0.009713425269585385</v>
+      </c>
+      <c r="J19">
+        <v>0.009713425269585383</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N19">
+        <v>273.75299</v>
+      </c>
+      <c r="O19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q19">
+        <v>25.93523660460444</v>
+      </c>
+      <c r="R19">
+        <v>233.41712944144</v>
+      </c>
+      <c r="S19">
+        <v>0.003076362168066425</v>
+      </c>
+      <c r="T19">
+        <v>0.003076362168066425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.852656</v>
+      </c>
+      <c r="I20">
+        <v>0.009713425269585385</v>
+      </c>
+      <c r="J20">
+        <v>0.009713425269585383</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N20">
+        <v>243.865367</v>
+      </c>
+      <c r="O20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q20">
+        <v>23.10369648497245</v>
+      </c>
+      <c r="R20">
+        <v>207.933268364752</v>
+      </c>
+      <c r="S20">
+        <v>0.002740493132661069</v>
+      </c>
+      <c r="T20">
+        <v>0.002740493132661069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.852656</v>
+      </c>
+      <c r="I21">
+        <v>0.009713425269585385</v>
+      </c>
+      <c r="J21">
+        <v>0.009713425269585383</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N21">
+        <v>43.662509</v>
+      </c>
+      <c r="O21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q21">
+        <v>4.136566697100444</v>
+      </c>
+      <c r="R21">
+        <v>37.229100273904</v>
+      </c>
+      <c r="S21">
+        <v>0.00049066748403537</v>
+      </c>
+      <c r="T21">
+        <v>0.0004906674840353699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8294466666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.48834</v>
+      </c>
+      <c r="I22">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="J22">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.382477</v>
+      </c>
+      <c r="N22">
+        <v>55.147431</v>
+      </c>
+      <c r="O22">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P22">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q22">
+        <v>15.24728427272666</v>
+      </c>
+      <c r="R22">
+        <v>137.22555845454</v>
+      </c>
+      <c r="S22">
+        <v>0.001808588416503706</v>
+      </c>
+      <c r="T22">
+        <v>0.001808588416503706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8294466666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.48834</v>
+      </c>
+      <c r="I23">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="J23">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q23">
+        <v>68.54824150278887</v>
+      </c>
+      <c r="R23">
+        <v>616.9341735250999</v>
+      </c>
+      <c r="S23">
+        <v>0.008130992597508125</v>
+      </c>
+      <c r="T23">
+        <v>0.008130992597508125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7882344047275071</v>
-      </c>
-      <c r="H16">
-        <v>0.7882344047275071</v>
-      </c>
-      <c r="I16">
-        <v>0.02769071501997431</v>
-      </c>
-      <c r="J16">
-        <v>0.02769071501997431</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q16">
-        <v>10.40171943189176</v>
-      </c>
-      <c r="R16">
-        <v>10.40171943189176</v>
-      </c>
-      <c r="S16">
-        <v>0.001297982592772997</v>
-      </c>
-      <c r="T16">
-        <v>0.001297982592772997</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8294466666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.48834</v>
+      </c>
+      <c r="I24">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="J24">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N24">
+        <v>273.75299</v>
+      </c>
+      <c r="O24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q24">
+        <v>75.68783501517778</v>
+      </c>
+      <c r="R24">
+        <v>681.1905151366</v>
+      </c>
+      <c r="S24">
+        <v>0.008977870368925344</v>
+      </c>
+      <c r="T24">
+        <v>0.008977870368925344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8294466666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.48834</v>
+      </c>
+      <c r="I25">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="J25">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N25">
+        <v>243.865367</v>
+      </c>
+      <c r="O25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q25">
+        <v>67.42443859119777</v>
+      </c>
+      <c r="R25">
+        <v>606.81994732078</v>
+      </c>
+      <c r="S25">
+        <v>0.007997690371880155</v>
+      </c>
+      <c r="T25">
+        <v>0.007997690371880153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8294466666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.48834</v>
+      </c>
+      <c r="I26">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="J26">
+        <v>0.02834707623627828</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N26">
+        <v>43.662509</v>
+      </c>
+      <c r="O26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q26">
+        <v>12.07190751611778</v>
+      </c>
+      <c r="R26">
+        <v>108.64716764506</v>
+      </c>
+      <c r="S26">
+        <v>0.001431934481460956</v>
+      </c>
+      <c r="T26">
+        <v>0.001431934481460955</v>
       </c>
     </row>
   </sheetData>
